--- a/docs/Manual Test - Login Manager.xlsx
+++ b/docs/Manual Test - Login Manager.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19739d4a924ac107/Documents/University/Spring 2024/Fundamentals of Software Engineering/Project/cse3310_sp24_group_12/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimi\OneDrive\Documents\Courses\Fundamental of SWE\3310 Group project\cse3310_sp24_group_12\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{ADCB8D2A-771F-47D1-9847-6669AD7B7A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E987E069-2D84-487B-B25C-DA88D7341B1C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C281FB-3227-41B4-A41A-EAC0FD3AD0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{85A1CE37-D265-4406-A8EF-DE321418B1E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{85A1CE37-D265-4406-A8EF-DE321418B1E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -212,6 +212,18 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -220,18 +232,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,681 +569,707 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A4ABEE-EFFA-4B04-BAE6-84DCDBA8F38D}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" customWidth="1"/>
+    <col min="12" max="12" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="1" t="s">
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1" t="s">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="1" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="1" t="s">
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="1" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="1" t="s">
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="1" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1" t="s">
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="1" t="s">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3" t="s">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="1" t="s">
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="1" t="s">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="1" t="s">
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:P5"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="E6:H7"/>
-    <mergeCell ref="I6:L7"/>
-    <mergeCell ref="M6:P7"/>
+    <mergeCell ref="M32:P33"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="E30:H31"/>
+    <mergeCell ref="I30:L31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="I32:L33"/>
+    <mergeCell ref="M22:P23"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="E26:H27"/>
+    <mergeCell ref="I26:L27"/>
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="E28:H29"/>
+    <mergeCell ref="I28:L29"/>
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="I20:L21"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="E22:H23"/>
+    <mergeCell ref="I22:L23"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="E24:H25"/>
+    <mergeCell ref="I24:L25"/>
+    <mergeCell ref="M24:P25"/>
+    <mergeCell ref="M28:P29"/>
+    <mergeCell ref="I14:L15"/>
+    <mergeCell ref="M14:P15"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="I18:L19"/>
+    <mergeCell ref="M18:P19"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="E8:H9"/>
     <mergeCell ref="I8:L9"/>
@@ -1260,37 +1286,11 @@
     <mergeCell ref="M12:P13"/>
     <mergeCell ref="A14:D15"/>
     <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I14:L15"/>
-    <mergeCell ref="M14:P15"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="I18:L19"/>
-    <mergeCell ref="M18:P19"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="E24:H25"/>
-    <mergeCell ref="I24:L25"/>
-    <mergeCell ref="M24:P25"/>
-    <mergeCell ref="M28:P29"/>
-    <mergeCell ref="A20:D21"/>
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="I20:L21"/>
-    <mergeCell ref="A22:D23"/>
-    <mergeCell ref="E22:H23"/>
-    <mergeCell ref="I22:L23"/>
-    <mergeCell ref="M22:P23"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="E26:H27"/>
-    <mergeCell ref="I26:L27"/>
-    <mergeCell ref="A28:D29"/>
-    <mergeCell ref="E28:H29"/>
-    <mergeCell ref="I28:L29"/>
-    <mergeCell ref="M32:P33"/>
-    <mergeCell ref="A30:D31"/>
-    <mergeCell ref="E30:H31"/>
-    <mergeCell ref="I30:L31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:H33"/>
-    <mergeCell ref="I32:L33"/>
+    <mergeCell ref="A1:P5"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="I6:L7"/>
+    <mergeCell ref="M6:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
